--- a/biology/Mycologie/Liste_de_champignons_psychotropes/Liste_de_champignons_psychotropes.xlsx
+++ b/biology/Mycologie/Liste_de_champignons_psychotropes/Liste_de_champignons_psychotropes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste contient les champignons psychotropes pour l'humain. Elle n'est pas exhaustive.
 </t>
@@ -511,13 +523,84 @@
           <t>Champignons psychotropes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive
-Ascomycètes
-Claviceps purpurea, ergot du seigle, Clavicipitaceae,
-Basidiomycètes
-Amanita muscaria, Amanite tue mouche, fausse oronge, Amanitaceae,
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste non exhaustive
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_psychotropes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_psychotropes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Champignons psychotropes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ascomycètes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Claviceps purpurea, ergot du seigle, Clavicipitaceae,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_champignons_psychotropes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_psychotropes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Champignons psychotropes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Basidiomycètes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amanita muscaria, Amanite tue mouche, fausse oronge, Amanitaceae,
 Lycoperdon marginatum, Gi'-i-wa, vesse de loup, Lycoperdaceae,
 Gymnopilus luteoviridis, Hymenogastraceae
 Panaeolus cinctulus, Bolbitiaceae,
@@ -529,31 +612,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Liste_de_champignons_psychotropes</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_de_champignons_psychotropes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">R.E Schultes et A. Hofmann, Les plantes des dieux les plantes hallucinogènes, 1979, 192p.  (ISBN 2-9507264-2-9)
  Portail de la mycologie                     </t>
